--- a/09.Programa de Auditoria/PROGRAMA_AUDI_INTERNA_Grupo1_Retroalimentacion.xlsx
+++ b/09.Programa de Auditoria/PROGRAMA_AUDI_INTERNA_Grupo1_Retroalimentacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quint\Downloads\CALIDAD\PROYECTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dark/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55C6A9D-611D-4597-BBD0-1E615255275F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49A1F508-304F-E04C-BF9D-6312A54DCA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="780" windowWidth="23260" windowHeight="12460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. PROGRAMA" sheetId="1" r:id="rId1"/>
@@ -600,11 +600,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yy"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="d/m/yy"/>
-    <numFmt numFmtId="167" formatCode="dd\-mm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="dd\-mm\-yy;@"/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -893,6 +892,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1430,7 +1430,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="28"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="28"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1601,7 +1601,7 @@
     <xf numFmtId="0" fontId="31" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="30" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="30" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1616,10 +1616,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1627,15 +1627,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1646,82 +1637,100 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1746,97 +1755,70 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2174,11 +2156,11 @@
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="4.88671875" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" customWidth="1"/>
     <col min="9" max="24" width="7" customWidth="1"/>
     <col min="25" max="25" width="9.6640625" customWidth="1"/>
     <col min="26" max="26" width="60.33203125" customWidth="1"/>
@@ -2193,34 +2175,34 @@
     </row>
     <row r="2" spans="1:47" ht="42.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="102" t="s">
+      <c r="B2" s="142"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="90"/>
+      <c r="Z2" s="106"/>
+      <c r="AA2" s="107"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
@@ -2244,34 +2226,34 @@
     </row>
     <row r="3" spans="1:47" ht="48.75" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="102" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="90"/>
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="107"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
@@ -2295,36 +2277,36 @@
     </row>
     <row r="4" spans="1:47" ht="21" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="102" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="90"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="107"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
@@ -2396,34 +2378,34 @@
       <c r="AU5" s="2"/>
     </row>
     <row r="6" spans="1:47" ht="20.25" customHeight="1">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="110"/>
+      <c r="R6" s="110"/>
+      <c r="S6" s="110"/>
+      <c r="T6" s="110"/>
+      <c r="U6" s="110"/>
+      <c r="V6" s="110"/>
+      <c r="W6" s="110"/>
+      <c r="X6" s="110"/>
+      <c r="Y6" s="110"/>
+      <c r="Z6" s="110"/>
+      <c r="AA6" s="110"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
@@ -2440,34 +2422,34 @@
       <c r="AO6" s="7"/>
     </row>
     <row r="7" spans="1:47" ht="26.25" customHeight="1">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="87"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="110"/>
+      <c r="S7" s="110"/>
+      <c r="T7" s="110"/>
+      <c r="U7" s="110"/>
+      <c r="V7" s="110"/>
+      <c r="W7" s="110"/>
+      <c r="X7" s="110"/>
+      <c r="Y7" s="110"/>
+      <c r="Z7" s="110"/>
+      <c r="AA7" s="110"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
@@ -2484,34 +2466,34 @@
       <c r="AO7" s="7"/>
     </row>
     <row r="8" spans="1:47" ht="51" customHeight="1">
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="110"/>
+      <c r="S8" s="110"/>
+      <c r="T8" s="110"/>
+      <c r="U8" s="110"/>
+      <c r="V8" s="110"/>
+      <c r="W8" s="110"/>
+      <c r="X8" s="110"/>
+      <c r="Y8" s="110"/>
+      <c r="Z8" s="110"/>
+      <c r="AA8" s="110"/>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
@@ -2537,18 +2519,18 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
@@ -2570,34 +2552,34 @@
       <c r="AO9" s="7"/>
     </row>
     <row r="10" spans="1:47" ht="20.25" customHeight="1">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="110"/>
+      <c r="V10" s="110"/>
+      <c r="W10" s="110"/>
+      <c r="X10" s="110"/>
+      <c r="Y10" s="110"/>
+      <c r="Z10" s="110"/>
+      <c r="AA10" s="110"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
@@ -2615,34 +2597,34 @@
     </row>
     <row r="11" spans="1:47" ht="60" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="110"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="110"/>
+      <c r="Z11" s="110"/>
+      <c r="AA11" s="110"/>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
@@ -2665,34 +2647,34 @@
       <c r="AU11" s="8"/>
     </row>
     <row r="12" spans="1:47" ht="20.25" customHeight="1">
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="87"/>
-      <c r="AA12" s="87"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="110"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="110"/>
+      <c r="S12" s="110"/>
+      <c r="T12" s="110"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="110"/>
+      <c r="X12" s="110"/>
+      <c r="Y12" s="110"/>
+      <c r="Z12" s="110"/>
+      <c r="AA12" s="110"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
@@ -2709,34 +2691,34 @@
       <c r="AO12" s="7"/>
     </row>
     <row r="13" spans="1:47" ht="20.25" customHeight="1">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="110"/>
+      <c r="S13" s="110"/>
+      <c r="T13" s="110"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="110"/>
+      <c r="X13" s="110"/>
+      <c r="Y13" s="110"/>
+      <c r="Z13" s="110"/>
+      <c r="AA13" s="110"/>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
@@ -2762,18 +2744,18 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
@@ -2795,34 +2777,34 @@
       <c r="AO14" s="7"/>
     </row>
     <row r="15" spans="1:47" ht="24.75" customHeight="1">
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="87"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="110"/>
+      <c r="U15" s="110"/>
+      <c r="V15" s="110"/>
+      <c r="W15" s="110"/>
+      <c r="X15" s="110"/>
+      <c r="Y15" s="110"/>
+      <c r="Z15" s="110"/>
+      <c r="AA15" s="110"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
@@ -2840,34 +2822,34 @@
     </row>
     <row r="16" spans="1:47" ht="24.75" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="87"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="87"/>
-      <c r="AA16" s="87"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="110"/>
+      <c r="S16" s="110"/>
+      <c r="T16" s="110"/>
+      <c r="U16" s="110"/>
+      <c r="V16" s="110"/>
+      <c r="W16" s="110"/>
+      <c r="X16" s="110"/>
+      <c r="Y16" s="110"/>
+      <c r="Z16" s="110"/>
+      <c r="AA16" s="110"/>
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
       <c r="AD16" s="12"/>
@@ -2890,34 +2872,34 @@
       <c r="AU16" s="2"/>
     </row>
     <row r="17" spans="1:47" ht="24.75" customHeight="1">
-      <c r="B17" s="109" t="s">
+      <c r="B17" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="87"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="87"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="87"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="110"/>
+      <c r="U17" s="110"/>
+      <c r="V17" s="110"/>
+      <c r="W17" s="110"/>
+      <c r="X17" s="110"/>
+      <c r="Y17" s="110"/>
+      <c r="Z17" s="110"/>
+      <c r="AA17" s="110"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
@@ -2934,32 +2916,32 @@
       <c r="AO17" s="7"/>
     </row>
     <row r="18" spans="1:47" ht="6.75" customHeight="1" thickBot="1">
-      <c r="B18" s="109"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="87"/>
-      <c r="X18" s="87"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="87"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="110"/>
+      <c r="T18" s="110"/>
+      <c r="U18" s="110"/>
+      <c r="V18" s="110"/>
+      <c r="W18" s="110"/>
+      <c r="X18" s="110"/>
+      <c r="Y18" s="110"/>
+      <c r="Z18" s="110"/>
+      <c r="AA18" s="110"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
@@ -2977,46 +2959,46 @@
     </row>
     <row r="19" spans="1:47" ht="10.5" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="113"/>
+      <c r="D19" s="95"/>
       <c r="E19" s="114"/>
-      <c r="F19" s="128" t="s">
+      <c r="F19" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="111" t="s">
+      <c r="G19" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="111" t="s">
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="111"/>
-      <c r="S19" s="158" t="s">
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="T19" s="113"/>
-      <c r="U19" s="113"/>
-      <c r="V19" s="113"/>
-      <c r="W19" s="112" t="s">
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="X19" s="113"/>
-      <c r="Y19" s="113"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
       <c r="Z19" s="114"/>
-      <c r="AA19" s="131" t="s">
+      <c r="AA19" s="134" t="s">
         <v>15</v>
       </c>
       <c r="AB19" s="14"/>
@@ -3042,32 +3024,32 @@
     </row>
     <row r="20" spans="1:47" ht="10.5" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="125"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="115"/>
-      <c r="D20" s="87"/>
+      <c r="D20" s="110"/>
       <c r="E20" s="116"/>
       <c r="F20" s="115"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="111"/>
-      <c r="N20" s="111"/>
-      <c r="O20" s="111"/>
-      <c r="P20" s="111"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="111"/>
-      <c r="S20" s="138"/>
-      <c r="T20" s="138"/>
-      <c r="U20" s="138"/>
-      <c r="V20" s="138"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="96"/>
+      <c r="U20" s="96"/>
+      <c r="V20" s="96"/>
       <c r="W20" s="115"/>
-      <c r="X20" s="87"/>
-      <c r="Y20" s="87"/>
+      <c r="X20" s="110"/>
+      <c r="Y20" s="110"/>
       <c r="Z20" s="116"/>
-      <c r="AA20" s="132"/>
+      <c r="AA20" s="135"/>
       <c r="AB20" s="14"/>
       <c r="AC20" s="14"/>
       <c r="AD20" s="14"/>
@@ -3091,48 +3073,48 @@
     </row>
     <row r="21" spans="1:47" ht="34.5" customHeight="1">
       <c r="A21" s="15"/>
-      <c r="B21" s="125"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="115"/>
-      <c r="D21" s="87"/>
+      <c r="D21" s="110"/>
       <c r="E21" s="116"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="117" t="s">
+      <c r="F21" s="132"/>
+      <c r="G21" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="118"/>
-      <c r="I21" s="117" t="s">
+      <c r="H21" s="121"/>
+      <c r="I21" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="119"/>
-      <c r="K21" s="159" t="s">
+      <c r="J21" s="122"/>
+      <c r="K21" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="159"/>
-      <c r="M21" s="160" t="s">
+      <c r="L21" s="87"/>
+      <c r="M21" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="161"/>
-      <c r="O21" s="160" t="s">
+      <c r="N21" s="89"/>
+      <c r="O21" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="P21" s="161"/>
-      <c r="Q21" s="159" t="s">
+      <c r="P21" s="89"/>
+      <c r="Q21" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="R21" s="159"/>
-      <c r="S21" s="120" t="s">
+      <c r="R21" s="87"/>
+      <c r="S21" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="T21" s="121"/>
-      <c r="U21" s="122" t="s">
+      <c r="T21" s="124"/>
+      <c r="U21" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="V21" s="123"/>
-      <c r="W21" s="98"/>
-      <c r="X21" s="99"/>
-      <c r="Y21" s="99"/>
-      <c r="Z21" s="100"/>
-      <c r="AA21" s="132"/>
+      <c r="V21" s="126"/>
+      <c r="W21" s="117"/>
+      <c r="X21" s="118"/>
+      <c r="Y21" s="118"/>
+      <c r="Z21" s="119"/>
+      <c r="AA21" s="135"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
@@ -3156,11 +3138,11 @@
     </row>
     <row r="22" spans="1:47" ht="38.25" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="130"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="133"/>
       <c r="G22" s="16" t="s">
         <v>51</v>
       </c>
@@ -3173,47 +3155,47 @@
       <c r="J22" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K22" s="81" t="s">
+      <c r="K22" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="L22" s="81" t="s">
+      <c r="L22" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="M22" s="81" t="s">
+      <c r="M22" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N22" s="81" t="s">
+      <c r="N22" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="O22" s="81" t="s">
+      <c r="O22" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="P22" s="81" t="s">
+      <c r="P22" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="Q22" s="81" t="s">
+      <c r="Q22" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="R22" s="81" t="s">
+      <c r="R22" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="S22" s="81" t="s">
+      <c r="S22" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="T22" s="81" t="s">
+      <c r="T22" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="U22" s="81" t="s">
+      <c r="U22" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="V22" s="81" t="s">
+      <c r="V22" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="W22" s="139"/>
-      <c r="X22" s="140"/>
-      <c r="Y22" s="140"/>
-      <c r="Z22" s="141"/>
-      <c r="AA22" s="133"/>
+      <c r="W22" s="97"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="99"/>
+      <c r="AA22" s="136"/>
       <c r="AB22" s="14"/>
       <c r="AC22" s="14"/>
       <c r="AD22" s="14"/>
@@ -3240,11 +3222,11 @@
       <c r="B23" s="18">
         <v>1</v>
       </c>
-      <c r="C23" s="142" t="s">
+      <c r="C23" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="143"/>
-      <c r="E23" s="144"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="85"/>
       <c r="F23" s="70">
         <v>1</v>
       </c>
@@ -3266,12 +3248,12 @@
       <c r="T23" s="21"/>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
-      <c r="W23" s="88" t="s">
+      <c r="W23" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="X23" s="145"/>
-      <c r="Y23" s="145"/>
-      <c r="Z23" s="146"/>
+      <c r="X23" s="101"/>
+      <c r="Y23" s="101"/>
+      <c r="Z23" s="102"/>
       <c r="AA23" s="22" t="s">
         <v>59</v>
       </c>
@@ -3301,11 +3283,11 @@
       <c r="B24" s="18">
         <v>2</v>
       </c>
-      <c r="C24" s="94" t="s">
+      <c r="C24" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="95"/>
-      <c r="E24" s="96"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="105"/>
       <c r="F24" s="70">
         <v>2</v>
       </c>
@@ -3327,12 +3309,12 @@
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
-      <c r="W24" s="88" t="s">
+      <c r="W24" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="90"/>
+      <c r="X24" s="106"/>
+      <c r="Y24" s="106"/>
+      <c r="Z24" s="107"/>
       <c r="AA24" s="22" t="s">
         <v>58</v>
       </c>
@@ -3362,11 +3344,11 @@
       <c r="B25" s="18">
         <v>3</v>
       </c>
-      <c r="C25" s="142" t="s">
+      <c r="C25" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="143"/>
-      <c r="E25" s="144"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="85"/>
       <c r="F25" s="70">
         <v>3</v>
       </c>
@@ -3388,12 +3370,12 @@
       <c r="T25" s="21"/>
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
-      <c r="W25" s="162" t="s">
+      <c r="W25" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="X25" s="163"/>
-      <c r="Y25" s="163"/>
-      <c r="Z25" s="164"/>
+      <c r="X25" s="81"/>
+      <c r="Y25" s="81"/>
+      <c r="Z25" s="82"/>
       <c r="AA25" s="22" t="s">
         <v>48</v>
       </c>
@@ -3423,11 +3405,11 @@
       <c r="B26" s="18">
         <v>3</v>
       </c>
-      <c r="C26" s="94" t="s">
+      <c r="C26" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="95"/>
-      <c r="E26" s="96"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="105"/>
       <c r="F26" s="70">
         <v>4</v>
       </c>
@@ -3449,12 +3431,12 @@
       <c r="T26" s="24"/>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
-      <c r="W26" s="88" t="s">
+      <c r="W26" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="X26" s="89"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="90"/>
+      <c r="X26" s="106"/>
+      <c r="Y26" s="106"/>
+      <c r="Z26" s="107"/>
       <c r="AA26" s="22" t="s">
         <v>59</v>
       </c>
@@ -3482,11 +3464,11 @@
     <row r="27" spans="1:47" ht="159" customHeight="1">
       <c r="A27" s="17"/>
       <c r="B27" s="18"/>
-      <c r="C27" s="142" t="s">
+      <c r="C27" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="143"/>
-      <c r="E27" s="144"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="85"/>
       <c r="F27" s="70">
         <v>5</v>
       </c>
@@ -3508,12 +3490,12 @@
       <c r="T27" s="24"/>
       <c r="U27" s="24"/>
       <c r="V27" s="24"/>
-      <c r="W27" s="162" t="s">
+      <c r="W27" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="X27" s="163"/>
-      <c r="Y27" s="163"/>
-      <c r="Z27" s="164"/>
+      <c r="X27" s="81"/>
+      <c r="Y27" s="81"/>
+      <c r="Z27" s="82"/>
       <c r="AA27" s="22" t="s">
         <v>58</v>
       </c>
@@ -3541,11 +3523,11 @@
     <row r="28" spans="1:47" ht="159" customHeight="1">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
-      <c r="C28" s="142" t="s">
+      <c r="C28" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="143"/>
-      <c r="E28" s="144"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="85"/>
       <c r="F28" s="70"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -3563,12 +3545,12 @@
       <c r="T28" s="24"/>
       <c r="U28" s="24"/>
       <c r="V28" s="24"/>
-      <c r="W28" s="162" t="s">
+      <c r="W28" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="X28" s="163"/>
-      <c r="Y28" s="163"/>
-      <c r="Z28" s="164"/>
+      <c r="X28" s="81"/>
+      <c r="Y28" s="81"/>
+      <c r="Z28" s="82"/>
       <c r="AA28" s="22" t="s">
         <v>48</v>
       </c>
@@ -3598,11 +3580,11 @@
       <c r="B29" s="18">
         <v>4</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="95"/>
-      <c r="E29" s="96"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="105"/>
       <c r="F29" s="70">
         <v>4</v>
       </c>
@@ -3622,12 +3604,12 @@
       <c r="T29" s="21"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
-      <c r="W29" s="88" t="s">
+      <c r="W29" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="89"/>
-      <c r="Z29" s="90"/>
+      <c r="X29" s="106"/>
+      <c r="Y29" s="106"/>
+      <c r="Z29" s="107"/>
       <c r="AA29" s="22" t="s">
         <v>59</v>
       </c>
@@ -3657,11 +3639,11 @@
       <c r="B30" s="18">
         <v>5</v>
       </c>
-      <c r="C30" s="94" t="s">
+      <c r="C30" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="95"/>
-      <c r="E30" s="96"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="105"/>
       <c r="F30" s="75">
         <v>5</v>
       </c>
@@ -3681,12 +3663,12 @@
       <c r="T30" s="21"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
-      <c r="W30" s="88" t="s">
+      <c r="W30" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="X30" s="89"/>
-      <c r="Y30" s="89"/>
-      <c r="Z30" s="90"/>
+      <c r="X30" s="106"/>
+      <c r="Y30" s="106"/>
+      <c r="Z30" s="107"/>
       <c r="AA30" s="22" t="s">
         <v>58</v>
       </c>
@@ -3714,11 +3696,11 @@
     <row r="31" spans="1:47" ht="163.5" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
-      <c r="C31" s="94" t="s">
+      <c r="C31" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="95"/>
-      <c r="E31" s="96"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="105"/>
       <c r="F31" s="76">
         <v>6</v>
       </c>
@@ -3738,12 +3720,12 @@
       <c r="T31" s="24"/>
       <c r="U31" s="24"/>
       <c r="V31" s="24"/>
-      <c r="W31" s="88" t="s">
+      <c r="W31" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="X31" s="89"/>
-      <c r="Y31" s="89"/>
-      <c r="Z31" s="90"/>
+      <c r="X31" s="106"/>
+      <c r="Y31" s="106"/>
+      <c r="Z31" s="107"/>
       <c r="AA31" s="22" t="s">
         <v>48</v>
       </c>
@@ -3771,11 +3753,11 @@
     <row r="32" spans="1:47" ht="209.25" customHeight="1">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
-      <c r="C32" s="94" t="s">
+      <c r="C32" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="95"/>
-      <c r="E32" s="96"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="105"/>
       <c r="F32" s="19">
         <v>7</v>
       </c>
@@ -3795,12 +3777,12 @@
       <c r="T32" s="21"/>
       <c r="U32" s="21"/>
       <c r="V32" s="21"/>
-      <c r="W32" s="88" t="s">
+      <c r="W32" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="X32" s="89"/>
-      <c r="Y32" s="89"/>
-      <c r="Z32" s="90"/>
+      <c r="X32" s="106"/>
+      <c r="Y32" s="106"/>
+      <c r="Z32" s="107"/>
       <c r="AA32" s="22" t="s">
         <v>59</v>
       </c>
@@ -3828,9 +3810,9 @@
     <row r="33" spans="1:47" ht="262.5" customHeight="1">
       <c r="A33" s="17"/>
       <c r="B33" s="18"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="96"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="105"/>
       <c r="F33" s="19"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -3848,10 +3830,10 @@
       <c r="T33" s="21"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
-      <c r="W33" s="88"/>
-      <c r="X33" s="89"/>
-      <c r="Y33" s="89"/>
-      <c r="Z33" s="90"/>
+      <c r="W33" s="100"/>
+      <c r="X33" s="106"/>
+      <c r="Y33" s="106"/>
+      <c r="Z33" s="107"/>
       <c r="AA33" s="22"/>
       <c r="AB33" s="17"/>
       <c r="AC33" s="17"/>
@@ -3877,9 +3859,9 @@
     <row r="34" spans="1:47" ht="90.75" customHeight="1">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="96"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="105"/>
       <c r="F34" s="19"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -3897,10 +3879,10 @@
       <c r="T34" s="21"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
-      <c r="W34" s="91"/>
-      <c r="X34" s="89"/>
-      <c r="Y34" s="89"/>
-      <c r="Z34" s="90"/>
+      <c r="W34" s="146"/>
+      <c r="X34" s="106"/>
+      <c r="Y34" s="106"/>
+      <c r="Z34" s="107"/>
       <c r="AA34" s="22"/>
       <c r="AB34" s="17"/>
       <c r="AC34" s="17"/>
@@ -3926,9 +3908,9 @@
     <row r="35" spans="1:47" ht="90.75" customHeight="1">
       <c r="A35" s="17"/>
       <c r="B35" s="18"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="90"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="107"/>
       <c r="F35" s="19"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -3946,10 +3928,10 @@
       <c r="T35" s="21"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
-      <c r="W35" s="91"/>
-      <c r="X35" s="89"/>
-      <c r="Y35" s="89"/>
-      <c r="Z35" s="90"/>
+      <c r="W35" s="146"/>
+      <c r="X35" s="106"/>
+      <c r="Y35" s="106"/>
+      <c r="Z35" s="107"/>
       <c r="AA35" s="22"/>
       <c r="AB35" s="17"/>
       <c r="AC35" s="17"/>
@@ -3983,22 +3965,22 @@
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
       <c r="J36" s="28"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="85"/>
-      <c r="R36" s="85"/>
-      <c r="S36" s="79"/>
-      <c r="T36" s="79"/>
-      <c r="U36" s="79"/>
-      <c r="V36" s="79"/>
-      <c r="W36" s="92"/>
-      <c r="X36" s="87"/>
-      <c r="Y36" s="87"/>
-      <c r="Z36" s="87"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="148"/>
+      <c r="X36" s="110"/>
+      <c r="Y36" s="110"/>
+      <c r="Z36" s="110"/>
       <c r="AA36" s="29"/>
     </row>
     <row r="37" spans="1:47" ht="12.75" customHeight="1">
@@ -4024,10 +4006,10 @@
       <c r="T37" s="31"/>
       <c r="U37" s="31"/>
       <c r="V37" s="31"/>
-      <c r="W37" s="92"/>
-      <c r="X37" s="87"/>
-      <c r="Y37" s="87"/>
-      <c r="Z37" s="87"/>
+      <c r="W37" s="148"/>
+      <c r="X37" s="110"/>
+      <c r="Y37" s="110"/>
+      <c r="Z37" s="110"/>
       <c r="AA37" s="29"/>
     </row>
     <row r="38" spans="1:47" ht="19.5" customHeight="1">
@@ -4055,10 +4037,10 @@
       <c r="T38" s="17"/>
       <c r="U38" s="17"/>
       <c r="V38" s="17"/>
-      <c r="W38" s="86"/>
-      <c r="X38" s="87"/>
-      <c r="Y38" s="87"/>
-      <c r="Z38" s="87"/>
+      <c r="W38" s="147"/>
+      <c r="X38" s="110"/>
+      <c r="Y38" s="110"/>
+      <c r="Z38" s="110"/>
       <c r="AA38" s="25"/>
     </row>
     <row r="39" spans="1:47" ht="18.75" customHeight="1">
@@ -4176,33 +4158,33 @@
     <row r="43" spans="1:47" ht="39.75" customHeight="1">
       <c r="A43" s="25"/>
       <c r="B43" s="26"/>
-      <c r="C43" s="136" t="s">
+      <c r="C43" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="136"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="136"/>
-      <c r="H43" s="136"/>
-      <c r="I43" s="136"/>
-      <c r="J43" s="136"/>
-      <c r="K43" s="136"/>
-      <c r="L43" s="136"/>
-      <c r="M43" s="136"/>
-      <c r="N43" s="136"/>
-      <c r="O43" s="136"/>
-      <c r="P43" s="136"/>
-      <c r="Q43" s="136"/>
-      <c r="R43" s="136"/>
-      <c r="S43" s="136"/>
-      <c r="T43" s="136"/>
-      <c r="U43" s="136"/>
-      <c r="V43" s="136"/>
-      <c r="W43" s="136"/>
-      <c r="X43" s="136"/>
-      <c r="Y43" s="136"/>
-      <c r="Z43" s="136"/>
-      <c r="AA43" s="137"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="92"/>
+      <c r="L43" s="92"/>
+      <c r="M43" s="92"/>
+      <c r="N43" s="92"/>
+      <c r="O43" s="92"/>
+      <c r="P43" s="92"/>
+      <c r="Q43" s="92"/>
+      <c r="R43" s="92"/>
+      <c r="S43" s="92"/>
+      <c r="T43" s="92"/>
+      <c r="U43" s="92"/>
+      <c r="V43" s="92"/>
+      <c r="W43" s="92"/>
+      <c r="X43" s="92"/>
+      <c r="Y43" s="92"/>
+      <c r="Z43" s="92"/>
+      <c r="AA43" s="93"/>
     </row>
     <row r="44" spans="1:47" ht="11.25" customHeight="1" thickBot="1">
       <c r="A44" s="25"/>
@@ -4244,18 +4226,18 @@
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
       <c r="J45" s="28"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="85"/>
-      <c r="P45" s="85"/>
-      <c r="Q45" s="85"/>
-      <c r="R45" s="85"/>
-      <c r="S45" s="79"/>
-      <c r="T45" s="79"/>
-      <c r="U45" s="79"/>
-      <c r="V45" s="79"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
       <c r="W45" s="43"/>
       <c r="X45" s="43"/>
       <c r="Y45" s="43"/>
@@ -4279,14 +4261,14 @@
       <c r="C49" s="51"/>
     </row>
     <row r="50" spans="1:22" ht="15" customHeight="1">
-      <c r="B50" s="135" t="s">
+      <c r="B50" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="135"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="135"/>
-      <c r="F50" s="135"/>
-      <c r="G50" s="135"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91"/>
+      <c r="G50" s="91"/>
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
       <c r="L50" s="17"/>
@@ -4310,13 +4292,13 @@
       <c r="C53" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="134">
+      <c r="D53" s="90">
         <v>45663</v>
       </c>
-      <c r="E53" s="134"/>
-      <c r="F53" s="134"/>
-      <c r="G53" s="134"/>
-      <c r="H53" s="134"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="90"/>
       <c r="J53" s="54"/>
       <c r="K53" s="54"/>
       <c r="L53" s="54"/>
@@ -33911,17 +33893,50 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="K19:R20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="W38:Z38"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="W36:Z36"/>
+    <mergeCell ref="W37:Z37"/>
+    <mergeCell ref="W32:Z32"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="G2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="G3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="B6:AA6"/>
+    <mergeCell ref="B7:AA7"/>
+    <mergeCell ref="B8:AA8"/>
+    <mergeCell ref="B10:AA10"/>
+    <mergeCell ref="B11:AA11"/>
+    <mergeCell ref="B12:AA12"/>
+    <mergeCell ref="B13:AA13"/>
+    <mergeCell ref="B15:AA15"/>
+    <mergeCell ref="B16:AA16"/>
+    <mergeCell ref="B17:AA17"/>
+    <mergeCell ref="G19:J20"/>
+    <mergeCell ref="W19:Z21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="B18:AA18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="AA19:AA22"/>
     <mergeCell ref="D53:H53"/>
     <mergeCell ref="B50:G50"/>
     <mergeCell ref="C43:AA43"/>
@@ -33938,50 +33953,17 @@
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
-    <mergeCell ref="B13:AA13"/>
-    <mergeCell ref="B15:AA15"/>
-    <mergeCell ref="B16:AA16"/>
-    <mergeCell ref="B17:AA17"/>
-    <mergeCell ref="G19:J20"/>
-    <mergeCell ref="W19:Z21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="B18:AA18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="AA19:AA22"/>
-    <mergeCell ref="B7:AA7"/>
-    <mergeCell ref="B8:AA8"/>
-    <mergeCell ref="B10:AA10"/>
-    <mergeCell ref="B11:AA11"/>
-    <mergeCell ref="B12:AA12"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="B6:AA6"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="G2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="G3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="W29:Z29"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="W38:Z38"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="W36:Z36"/>
-    <mergeCell ref="W37:Z37"/>
-    <mergeCell ref="W32:Z32"/>
+    <mergeCell ref="K19:R20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <conditionalFormatting sqref="F52:G52">
@@ -34018,10 +34000,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="38.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="38.1640625" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1"/>
@@ -34029,52 +34011,52 @@
       <c r="A2" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
       <c r="H2" s="150"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="151"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
       <c r="H3" s="152"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" s="151"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
       <c r="H4" s="152"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" s="151"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
       <c r="H5" s="152"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="151"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
       <c r="H6" s="152"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1">
@@ -34184,7 +34166,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="122.25" customHeight="1">
-      <c r="A15" s="165" t="s">
+      <c r="A15" s="158" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="68">
@@ -34199,10 +34181,10 @@
       <c r="E15" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="82" t="s">
+      <c r="F15" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="80" t="s">
+      <c r="G15" s="77" t="s">
         <v>69</v>
       </c>
       <c r="H15" s="72" t="s">
@@ -34210,7 +34192,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="141.75" customHeight="1">
-      <c r="A16" s="148"/>
+      <c r="A16" s="159"/>
       <c r="B16" s="68">
         <v>45664</v>
       </c>
@@ -34223,10 +34205,10 @@
       <c r="E16" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="82" t="s">
+      <c r="F16" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="80" t="s">
+      <c r="G16" s="77" t="s">
         <v>69</v>
       </c>
       <c r="H16" s="73" t="s">
@@ -34234,7 +34216,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="165" customHeight="1">
-      <c r="A17" s="148"/>
+      <c r="A17" s="159"/>
       <c r="B17" s="68">
         <v>45665</v>
       </c>
@@ -34247,10 +34229,10 @@
       <c r="E17" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="82" t="s">
+      <c r="F17" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="80" t="s">
+      <c r="G17" s="77" t="s">
         <v>69</v>
       </c>
       <c r="H17" s="74" t="s">
@@ -34258,7 +34240,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="123" customHeight="1">
-      <c r="A18" s="148"/>
+      <c r="A18" s="159"/>
       <c r="B18" s="68">
         <v>45663</v>
       </c>
@@ -34271,10 +34253,10 @@
       <c r="E18" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="82" t="s">
+      <c r="F18" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="80" t="s">
+      <c r="G18" s="77" t="s">
         <v>69</v>
       </c>
       <c r="H18" s="72" t="s">
@@ -34300,6 +34282,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EDB39E34F5A9B445B025C05B2A05D030" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c21ef800502b5dc1190a9a0361733939">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f1f31ffb-9912-4459-99c8-b26e82094b51" xmlns:ns4="ce621958-37b1-43fe-a1f1-1aad67996a88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30daf50bb6192471b76b9808b4256f50" ns3:_="" ns4:_="">
     <xsd:import namespace="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
@@ -34494,38 +34493,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D01A9D5D-1824-48C2-8527-9D8749A8DDDB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96490F3C-DFF7-4107-BF06-5DD550949EBD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
-    <ds:schemaRef ds:uri="ce621958-37b1-43fe-a1f1-1aad67996a88"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -34548,9 +34519,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96490F3C-DFF7-4107-BF06-5DD550949EBD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D01A9D5D-1824-48C2-8527-9D8749A8DDDB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
+    <ds:schemaRef ds:uri="ce621958-37b1-43fe-a1f1-1aad67996a88"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>